--- a/Data/EC/NIT-8000166563.xlsx
+++ b/Data/EC/NIT-8000166563.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E0788EA-4306-4D5B-9955-2CB019EF6526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5E6F4C1-6BC7-4843-94EE-784C62CE86C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8E0A57F0-ED7B-429F-B04B-EE8F1B6E31F6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7A8B76DC-3841-410C-83BB-FB943039EEC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,25 +65,55 @@
     <t>CC</t>
   </si>
   <si>
+    <t>72071604</t>
+  </si>
+  <si>
+    <t>WILFRIDO UTRIA BERDUGO</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>22639968</t>
+  </si>
+  <si>
+    <t>DIVINA ESTHER OLMOS MARTINEZ</t>
+  </si>
+  <si>
+    <t>72072531</t>
+  </si>
+  <si>
+    <t>ANTONIO JOSE PUENTES RUIZ</t>
+  </si>
+  <si>
+    <t>30685504</t>
+  </si>
+  <si>
+    <t>LUZ MILEIDA LEON PACHECO</t>
+  </si>
+  <si>
+    <t>8641284</t>
+  </si>
+  <si>
+    <t>LUIS EDUARDO OLMOS MARTINEZ</t>
+  </si>
+  <si>
+    <t>1045231139</t>
+  </si>
+  <si>
+    <t>ARIEL UTRIA CORTINA</t>
+  </si>
+  <si>
     <t>8638995</t>
   </si>
   <si>
     <t>DIGNO ANTONIO OLMOS MARTINEZ</t>
   </si>
   <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>8641284</t>
-  </si>
-  <si>
-    <t>LUIS EDUARDO OLMOS MARTINEZ</t>
-  </si>
-  <si>
-    <t>30685504</t>
-  </si>
-  <si>
-    <t>LUZ MILEIDA LEON PACHECO</t>
+    <t>3777781</t>
+  </si>
+  <si>
+    <t>URCINO ANGULO CASTRO</t>
   </si>
   <si>
     <t>8527520</t>
@@ -92,34 +122,13 @@
     <t>LUIS ALFREDO MERCADO CASTELLAR</t>
   </si>
   <si>
-    <t>72072531</t>
-  </si>
-  <si>
-    <t>ANTONIO JOSE PUENTES RUIZ</t>
-  </si>
-  <si>
-    <t>3777781</t>
-  </si>
-  <si>
-    <t>URCINO ANGULO CASTRO</t>
-  </si>
-  <si>
-    <t>22639968</t>
-  </si>
-  <si>
-    <t>DIVINA ESTHER OLMOS MARTINEZ</t>
-  </si>
-  <si>
-    <t>1045231139</t>
-  </si>
-  <si>
-    <t>ARIEL UTRIA CORTINA</t>
-  </si>
-  <si>
-    <t>72071604</t>
-  </si>
-  <si>
-    <t>WILFRIDO UTRIA BERDUGO</t>
+    <t>8000166563</t>
+  </si>
+  <si>
+    <t>1606</t>
+  </si>
+  <si>
+    <t>1605</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -533,7 +542,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA0D9B4D-B001-AB87-2553-A0A1D4AF7845}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB24C265-68A1-4DBB-6676-D27130D7F53E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -884,8 +893,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8BB907-3EBB-4757-BA63-09756A7BCC9E}">
-  <dimension ref="B2:J30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22EE6BF8-AEBF-432A-94E0-7C3A26F2A2B2}">
+  <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -909,7 +918,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -954,7 +963,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -986,12 +995,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>176827</v>
+        <v>973027</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1002,17 +1011,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C13" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F13" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1039,13 +1048,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1062,10 +1071,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>17480</v>
+        <v>35467</v>
       </c>
       <c r="G16" s="18">
-        <v>690000</v>
+        <v>1400000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1085,10 +1094,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>17480</v>
+        <v>19000</v>
       </c>
       <c r="G17" s="18">
-        <v>690000</v>
+        <v>750000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1134,7 +1143,7 @@
         <v>17480</v>
       </c>
       <c r="G19" s="18">
-        <v>1533000</v>
+        <v>690000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1200,10 +1209,10 @@
         <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>19000</v>
+        <v>17480</v>
       </c>
       <c r="G22" s="18">
-        <v>750000</v>
+        <v>690000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1233,56 +1242,98 @@
       <c r="J23" s="20"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="24">
-        <v>35467</v>
-      </c>
-      <c r="G24" s="24">
-        <v>1400000</v>
-      </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="32"/>
-      <c r="H29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="H30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="F24" s="18">
+        <v>17480</v>
+      </c>
+      <c r="G24" s="18">
+        <v>690000</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="18">
+        <v>398100</v>
+      </c>
+      <c r="G25" s="18">
+        <v>0</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="24">
+        <v>398100</v>
+      </c>
+      <c r="G26" s="24">
+        <v>0</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="26"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="H31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="H32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H31:J31"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-8000166563.xlsx
+++ b/Data/EC/NIT-8000166563.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6749206-0475-4CC3-84AD-E0F54935A72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{338A8C24-6355-40EF-81DD-D60649657708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{80C12365-2120-409F-AD4D-9E81D2B3AFE5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{ED33BC69-9B56-4B59-899F-0BA93FFF827B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -218,9 +218,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -233,7 +231,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -427,29 +427,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -468,19 +468,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,7 +539,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4477B4E-BEDD-9F42-8F30-D69D7A7A4346}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D3953F-D707-6B86-3010-E2F4FAB0C91E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -884,7 +890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4258B22A-8B16-4FE4-A174-5B2C7EEE1D17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B815F26C-BB70-43C1-B9EA-26D617827896}">
   <dimension ref="B2:J30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -907,49 +913,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -957,7 +963,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -973,7 +979,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>8000166563</v>
       </c>
@@ -989,7 +995,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>176827</v>
       </c>
@@ -1058,18 +1064,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>35467</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>1400000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1081,18 +1087,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>19000</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>750000</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1104,18 +1110,18 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>17480</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>690000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1127,18 +1133,18 @@
       <c r="D19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>17480</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>690000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1150,18 +1156,18 @@
       <c r="D20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>17480</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>690000</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1173,18 +1179,18 @@
       <c r="D21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>17480</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>690000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1196,18 +1202,18 @@
       <c r="D22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>17480</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>690000</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1219,47 +1225,47 @@
       <c r="D23" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>17480</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>690000</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="26">
         <v>17480</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="26">
         <v>690000</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="28"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="32"/>
+      <c r="C29" s="34"/>
       <c r="H29" s="1" t="s">
         <v>37</v>
       </c>
@@ -1267,10 +1273,10 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="32"/>
+      <c r="C30" s="34"/>
       <c r="H30" s="1" t="s">
         <v>38</v>
       </c>
